--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
@@ -46,118 +46,118 @@
     <t>horrible</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>shocking</t>
   </si>
   <si>
     <t>frightening</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>false</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>thanks</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>first</t>
   </si>
   <si>
     <t>social</t>
@@ -521,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -690,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9711538461538461</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C5">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -761,16 +761,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.86</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>0.6842105263157895</v>
@@ -911,16 +911,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.5733333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.5517241379310345</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +990,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8421052631578947</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.5333333333333333</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,16 +1061,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.4444444444444444</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.3684210526315789</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.2424242424242424</v>
+        <v>0.03916211293260474</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,31 +1208,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15">
-        <v>0.03551912568306011</v>
-      </c>
-      <c r="L15">
-        <v>39</v>
-      </c>
-      <c r="M15">
-        <v>39</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1059</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1243,10 +1219,10 @@
         <v>0.6</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1258,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1266,13 +1242,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1284,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1292,13 +1268,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5882352941176471</v>
+        <v>0.55</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1310,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1318,13 +1294,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C19">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1336,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1344,13 +1320,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1362,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1370,13 +1346,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4705882352941176</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1388,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1396,13 +1372,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1422,13 +1398,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.45</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1440,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1448,13 +1424,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3191489361702128</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1466,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1474,13 +1450,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3142857142857143</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1492,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1500,13 +1476,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3076923076923077</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1518,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1526,13 +1502,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3043478260869565</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1544,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1552,13 +1528,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2564102564102564</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1570,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1581,10 +1557,10 @@
         <v>0.25</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1596,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1604,13 +1580,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07692307692307693</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1622,7 +1598,33 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>72</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.1025641025641026</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
